--- a/Scénarios/rechercher_evenement.xlsx
+++ b/Scénarios/rechercher_evenement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicda\Documents\IUT\S2-05-Gestion_d_un_projet\Scénarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0BFBB-90F9-4553-B9D7-997FE791EB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4B9DEC-6ADC-4BDF-9E7C-CAF0464CB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Sommaire d'identification</t>
   </si>
@@ -156,17 +156,17 @@
     <t>2. Après avoir séléctionner l'icône de tendance sous la forme d'une flamme</t>
   </si>
   <si>
-    <t>3. Le système affiche une liste de tout les évènements en tendancespar ordre de pertinance</t>
-  </si>
-  <si>
     <t>4. L'utilisateur choisit un évènement</t>
   </si>
   <si>
     <t>5. Le système affiche la page de l'évènement</t>
   </si>
   <si>
+    <t>3. Le système affiche une liste de tout les évènements en tendances par ordre de pertinance</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">A2: </t>
+      <t xml:space="preserve">A1: </t>
     </r>
     <r>
       <rPr>
@@ -179,6 +179,9 @@
       </rPr>
       <t xml:space="preserve">L'utilisateur souhaite retourner à la carte </t>
     </r>
+  </si>
+  <si>
+    <t>L'enchainement A1 commence au point 2 du scénario nominal.</t>
   </si>
 </sst>
 </file>
@@ -722,8 +725,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -812,17 +815,17 @@
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -837,7 +840,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
